--- a/CI/TestSQL/02.TestData/CreateGroup.xlsx
+++ b/CI/TestSQL/02.TestData/CreateGroup.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" tabRatio="419" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateGroup" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>Group_Name</t>
   </si>
@@ -54,24 +54,15 @@
     <t>Test data</t>
   </si>
   <si>
-    <t>Creates a new group if a group with Group_Name does not already exist</t>
-  </si>
-  <si>
     <t>(t) FI Oakley Coffee Team</t>
   </si>
   <si>
-    <t>Optional parameters: Target_Size, Description</t>
-  </si>
-  <si>
     <t>(t+auto) GO Bedrock 2018</t>
   </si>
   <si>
     <t>jkerstanoff@callibrity.com</t>
   </si>
   <si>
-    <t>All other parameters are required</t>
-  </si>
-  <si>
     <t>(t+auto) GO Bedrock 2018 (Trip Participants)</t>
   </si>
   <si>
@@ -84,9 +75,6 @@
     <t>matt.silbernagel@ingagepartners.com</t>
   </si>
   <si>
-    <t>If cell is left blank, Null will be inserted into MP</t>
-  </si>
-  <si>
     <t>(t) Fathers Oakley CG - Waitlist</t>
   </si>
   <si>
@@ -148,12 +136,42 @@
   </si>
   <si>
     <t>mpcrds+sh@gmail.com</t>
+  </si>
+  <si>
+    <t>Deadline_Passed_Message_ID</t>
+  </si>
+  <si>
+    <t>__IsPublic</t>
+  </si>
+  <si>
+    <t>__ISBlogEnabled</t>
+  </si>
+  <si>
+    <t>__ISWebEnabled</t>
+  </si>
+  <si>
+    <t>Enable_Waiting_List</t>
+  </si>
+  <si>
+    <t>Child_Care_Available</t>
+  </si>
+  <si>
+    <t>Meeting_Time</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Is_Primary_Contact_Host</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,9 +649,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -988,11 +1007,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1001,14 +1020,21 @@
     <col min="2" max="2" width="12.9296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.796875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.53125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1025,16 +1051,40 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1050,22 +1100,31 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
         <v>42329</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>12</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -1079,22 +1138,31 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
         <v>38251</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1106,18 +1174,18 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>43101</v>
       </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -1129,18 +1197,21 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>43101</v>
+      </c>
+      <c r="L5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1">
-        <v>43101</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -1152,21 +1223,27 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <v>42309</v>
       </c>
-      <c r="G6">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -1178,18 +1255,24 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <v>42309</v>
       </c>
-      <c r="G7">
+      <c r="K7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -1201,21 +1284,36 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>38251</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M8">
+        <v>58</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -1227,21 +1325,36 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
         <v>38251</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M9">
+        <v>58</v>
+      </c>
+      <c r="N9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -1253,15 +1366,18 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
         <v>43101</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -1273,15 +1389,18 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
         <v>43101</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -1295,19 +1414,31 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
         <v>42329</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="N12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1319,15 +1450,21 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="1">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
         <v>42309</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -1339,15 +1476,21 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1">
+        <v>26</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
         <v>42309</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -1359,15 +1502,24 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
         <v>42309</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1379,18 +1531,24 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
         <v>42309</v>
       </c>
-      <c r="H16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1402,18 +1560,27 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="1">
+        <v>33</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
         <v>42309</v>
       </c>
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J17" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>30</v>
@@ -1425,18 +1592,24 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="1">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
         <v>42309</v>
       </c>
-      <c r="H18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="L18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>30</v>
@@ -1448,13 +1621,19 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="1">
+        <v>38</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
         <v>42309</v>
       </c>
-      <c r="H19" t="s">
-        <v>40</v>
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
